--- a/Attributes.xlsx
+++ b/Attributes.xlsx
@@ -370,6 +370,9 @@
     <t xml:space="preserve">Campfire</t>
   </si>
   <si>
+    <t xml:space="preserve">Deployables,Benches</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canteen</t>
   </si>
   <si>
@@ -419,9 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">ChemistryBench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployables,Benches</t>
   </si>
   <si>
     <t xml:space="preserve">ClothArmsArmor</t>
@@ -2199,9 +2199,9 @@
   <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E617" activeCellId="0" sqref="E617"/>
+      <selection pane="bottomLeft" activeCell="E89" activeCellId="0" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -3722,7 +3722,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="2" t="s">
@@ -3739,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="4" t="s">
@@ -3756,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4" t="s">
@@ -3773,7 +3773,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4" t="s">
@@ -3790,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
@@ -3824,7 +3824,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="2" t="s">
@@ -3841,7 +3841,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
@@ -3858,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
@@ -3875,11 +3875,11 @@
         <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -3892,7 +3892,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
@@ -3909,7 +3909,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4" t="s">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4" t="s">
@@ -3943,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="2" t="s">
@@ -3960,7 +3960,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="4" t="s">
@@ -3977,11 +3977,11 @@
         <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D304" s="3"/>
       <c r="E304" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="D305" s="3"/>
       <c r="E305" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="D332" s="3"/>
       <c r="E332" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="D334" s="3"/>
       <c r="E334" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="D344" s="3"/>
       <c r="E344" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="D532" s="3"/>
       <c r="E532" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="D561" s="3"/>
       <c r="E561" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="D580" s="3"/>
       <c r="E580" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -12067,7 +12067,7 @@
       </c>
       <c r="D582" s="3"/>
       <c r="E582" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -12646,7 +12646,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Attributes.xlsx
+++ b/Attributes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="674">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -2039,6 +2039,9 @@
   </si>
   <si>
     <t xml:space="preserve">ScorpionPincer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiofuelRadar</t>
   </si>
 </sst>
 </file>
@@ -2196,12 +2199,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E89" activeCellId="0" sqref="E89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E619" activeCellId="0" sqref="E619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12643,6 +12646,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
